--- a/001 Project/001 Application/sql/slowniki.xlsx
+++ b/001 Project/001 Application/sql/slowniki.xlsx
@@ -5,16 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pawel.dabala\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\001_programy\005_competitive\001 Project\001 Application\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC09E149-3363-40E5-9570-46674B68800A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{82514058-E019-417B-97C2-52E33AFE81E7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{0A1D0093-9CB5-406E-8959-9EDFC34F9A2F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{0A1D0093-9CB5-406E-8959-9EDFC34F9A2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sub Category uspojnienie" sheetId="1" r:id="rId1"/>
+    <sheet name="Stacje" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Stacje!$A$1:$C$483</definedName>
+  </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="516">
   <si>
     <t>NIELSEN</t>
   </si>
@@ -94,6 +98,1485 @@
   </si>
   <si>
     <t>Wozki widlowe</t>
+  </si>
+  <si>
+    <t>Rok</t>
+  </si>
+  <si>
+    <t>13th Street Universal [Hallmark]</t>
+  </si>
+  <si>
+    <t>Polsat thematic</t>
+  </si>
+  <si>
+    <t>4fun.tv</t>
+  </si>
+  <si>
+    <t>Ale Kino</t>
+  </si>
+  <si>
+    <t>TVN thematic</t>
+  </si>
+  <si>
+    <t>Animal Planet</t>
+  </si>
+  <si>
+    <t>AXN</t>
+  </si>
+  <si>
+    <t>AXN Crime</t>
+  </si>
+  <si>
+    <t>AXN Sci-Fi</t>
+  </si>
+  <si>
+    <t>BBC CBeebies</t>
+  </si>
+  <si>
+    <t>BBC Entertainment</t>
+  </si>
+  <si>
+    <t>BBC Knowledge</t>
+  </si>
+  <si>
+    <t>BBC Lifestyle</t>
+  </si>
+  <si>
+    <t>Boomerang</t>
+  </si>
+  <si>
+    <t>Canal+</t>
+  </si>
+  <si>
+    <t>Canal+ Gol [Canal+ Sport2]</t>
+  </si>
+  <si>
+    <t>Canal+ Sport [Canal+ Niebieski]</t>
+  </si>
+  <si>
+    <t>Canal+ Sport 2</t>
+  </si>
+  <si>
+    <t>Cartoon Network</t>
+  </si>
+  <si>
+    <t>Club TV [Zone Club]</t>
+  </si>
+  <si>
+    <t>Atmedia</t>
+  </si>
+  <si>
+    <t>Comedy Central</t>
+  </si>
+  <si>
+    <t>Comedy Central Family [VH1 Polska]</t>
+  </si>
+  <si>
+    <t>Czworka Polskie Radio</t>
+  </si>
+  <si>
+    <t>Discovery</t>
+  </si>
+  <si>
+    <t>Discovery Historia</t>
+  </si>
+  <si>
+    <t>Discovery Science [Discovery Sci-Trek]</t>
+  </si>
+  <si>
+    <t>Discovery World</t>
+  </si>
+  <si>
+    <t>Disney Channel</t>
+  </si>
+  <si>
+    <t>Disney XD</t>
+  </si>
+  <si>
+    <t>Domo</t>
+  </si>
+  <si>
+    <t>Eska TV</t>
+  </si>
+  <si>
+    <t>ZPR</t>
+  </si>
+  <si>
+    <t>Extreme Sports</t>
+  </si>
+  <si>
+    <t>FilmBox</t>
+  </si>
+  <si>
+    <t>FOX</t>
+  </si>
+  <si>
+    <t>FOXlife</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>Investigation Discovery</t>
+  </si>
+  <si>
+    <t>ITV</t>
+  </si>
+  <si>
+    <t>Kino Polska</t>
+  </si>
+  <si>
+    <t>Kino Polska Muzyka</t>
+  </si>
+  <si>
+    <t>kuchnia.tv</t>
+  </si>
+  <si>
+    <t>MiniMini</t>
+  </si>
+  <si>
+    <t>Movies 24</t>
+  </si>
+  <si>
+    <t>MTV Polska</t>
+  </si>
+  <si>
+    <t>Nat Geo Wild</t>
+  </si>
+  <si>
+    <t>National Geographic</t>
+  </si>
+  <si>
+    <t>Nickelodeon</t>
+  </si>
+  <si>
+    <t>Orange Sport [Orange Sport Info]</t>
+  </si>
+  <si>
+    <t>Orange Sport Info</t>
+  </si>
+  <si>
+    <t>Planete</t>
+  </si>
+  <si>
+    <t>Polo TV</t>
+  </si>
+  <si>
+    <t>Polonia1</t>
+  </si>
+  <si>
+    <t>Polsat</t>
+  </si>
+  <si>
+    <t>Polsat Cafe</t>
+  </si>
+  <si>
+    <t>Polsat Film</t>
+  </si>
+  <si>
+    <t>Polsat Futbol</t>
+  </si>
+  <si>
+    <t>Polsat JimJam [JimJam]</t>
+  </si>
+  <si>
+    <t>Polsat News</t>
+  </si>
+  <si>
+    <t>Polsat Play</t>
+  </si>
+  <si>
+    <t>Polsat Sport</t>
+  </si>
+  <si>
+    <t>Polsat Sport Extra</t>
+  </si>
+  <si>
+    <t>Polsat2</t>
+  </si>
+  <si>
+    <t>PULS [TV Puls]</t>
+  </si>
+  <si>
+    <t>Rebel.tv</t>
+  </si>
+  <si>
+    <t>Religia.tv</t>
+  </si>
+  <si>
+    <t>Rodin TV</t>
+  </si>
+  <si>
+    <t>Scifi Universal</t>
+  </si>
+  <si>
+    <t>Sportklub</t>
+  </si>
+  <si>
+    <t>Superstacja</t>
+  </si>
+  <si>
+    <t>TCM</t>
+  </si>
+  <si>
+    <t>Tele5</t>
+  </si>
+  <si>
+    <t>teleTOON+ [ZigZap/Hyper]</t>
+  </si>
+  <si>
+    <t>TLC</t>
+  </si>
+  <si>
+    <t>Travel Channel</t>
+  </si>
+  <si>
+    <t>TTV - Twoja Telewizja</t>
+  </si>
+  <si>
+    <t>TV.DISCO</t>
+  </si>
+  <si>
+    <t>TV PULS [PULS]</t>
+  </si>
+  <si>
+    <t>TV4</t>
+  </si>
+  <si>
+    <t>TV6</t>
+  </si>
+  <si>
+    <t>TVN</t>
+  </si>
+  <si>
+    <t>TVN+1</t>
+  </si>
+  <si>
+    <t>TVN Meteo</t>
+  </si>
+  <si>
+    <t>TVN Style</t>
+  </si>
+  <si>
+    <t>TVN Turbo</t>
+  </si>
+  <si>
+    <t>TVN24</t>
+  </si>
+  <si>
+    <t>TVN7 [RTL7]</t>
+  </si>
+  <si>
+    <t>TVR</t>
+  </si>
+  <si>
+    <t>TVP HD</t>
+  </si>
+  <si>
+    <t>TVP thematic</t>
+  </si>
+  <si>
+    <t>TVP Historia</t>
+  </si>
+  <si>
+    <t>TVP INFO [TVP3]</t>
+  </si>
+  <si>
+    <t>TVP Kultura</t>
+  </si>
+  <si>
+    <t>TVP Seriale</t>
+  </si>
+  <si>
+    <t>TVP Sport</t>
+  </si>
+  <si>
+    <t>TVP1</t>
+  </si>
+  <si>
+    <t>TVP</t>
+  </si>
+  <si>
+    <t>TVP2</t>
+  </si>
+  <si>
+    <t>TVPolonia</t>
+  </si>
+  <si>
+    <t>TVS</t>
+  </si>
+  <si>
+    <t>Universal Channel</t>
+  </si>
+  <si>
+    <t>VH1 Europe</t>
+  </si>
+  <si>
+    <t>Viacom Blink</t>
+  </si>
+  <si>
+    <t>VIVA Polska</t>
+  </si>
+  <si>
+    <t>Wedding TV</t>
+  </si>
+  <si>
+    <t>ZigZap/Hyper [MiniMax/Hyper]</t>
+  </si>
+  <si>
+    <t>Zone Europa [Europa Europa]</t>
+  </si>
+  <si>
+    <t>Zone Reality [Reality TV]</t>
+  </si>
+  <si>
+    <t>Zone Romantica [Romantica]</t>
+  </si>
+  <si>
+    <t>VH 1 [VH1 Europe]</t>
+  </si>
+  <si>
+    <t>Edusat</t>
+  </si>
+  <si>
+    <t>ATM Rozrywka</t>
+  </si>
+  <si>
+    <t>Puls 2</t>
+  </si>
+  <si>
+    <t>Ale Kino+ [Ale Kino]</t>
+  </si>
+  <si>
+    <t>Planete+ [Planete]</t>
+  </si>
+  <si>
+    <t>Domo+ [Domo]</t>
+  </si>
+  <si>
+    <t>kuchnia+ [kuchnia.tv]</t>
+  </si>
+  <si>
+    <t>Polsat Sport News</t>
+  </si>
+  <si>
+    <t>CBS Drama [Club TV]</t>
+  </si>
+  <si>
+    <t>CBS Reality [Zone Reality]</t>
+  </si>
+  <si>
+    <t>CBS Europa [Zone Europa]</t>
+  </si>
+  <si>
+    <t>CBS Action [Zone Romantica]</t>
+  </si>
+  <si>
+    <t>AXN Spin</t>
+  </si>
+  <si>
+    <t>TV Biznes</t>
+  </si>
+  <si>
+    <t>Polsat Biznes</t>
+  </si>
+  <si>
+    <t>TVP Polonia</t>
+  </si>
+  <si>
+    <t>Others cable/satellite</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>TV Wisla</t>
+  </si>
+  <si>
+    <t>TV Odra</t>
+  </si>
+  <si>
+    <t>Cartoon Network/TNT</t>
+  </si>
+  <si>
+    <t>Eurosport</t>
+  </si>
+  <si>
+    <t>TVP Gdansk</t>
+  </si>
+  <si>
+    <t>TVP Warszawa [WOT]</t>
+  </si>
+  <si>
+    <t>Nasza TV</t>
+  </si>
+  <si>
+    <t>TVP Poznan</t>
+  </si>
+  <si>
+    <t>TVP Katowice</t>
+  </si>
+  <si>
+    <t>TVP Krakow</t>
+  </si>
+  <si>
+    <t>TVP Lodz</t>
+  </si>
+  <si>
+    <t>TVP Wroclaw</t>
+  </si>
+  <si>
+    <t>TVP Lublin</t>
+  </si>
+  <si>
+    <t>TVP Bydgoszcz</t>
+  </si>
+  <si>
+    <t>TVP Rzeszow</t>
+  </si>
+  <si>
+    <t>TVP Szczecin</t>
+  </si>
+  <si>
+    <t>TVP Bialystok</t>
+  </si>
+  <si>
+    <t>Wizja TV network (no total, to 020331)</t>
+  </si>
+  <si>
+    <t>Wizja 1</t>
+  </si>
+  <si>
+    <t>Wizja Sport</t>
+  </si>
+  <si>
+    <t>Twoja Telewizja Miejska (to 020331)</t>
+  </si>
+  <si>
+    <t>Cartoon Network/TCM</t>
+  </si>
+  <si>
+    <t>VIVA (German)</t>
+  </si>
+  <si>
+    <t>Jetix [Fox Kids]</t>
+  </si>
+  <si>
+    <t>MiniMini+ [MiniMini]</t>
+  </si>
+  <si>
+    <t>Discovery Civilisation</t>
+  </si>
+  <si>
+    <t>Mango24</t>
+  </si>
+  <si>
+    <t>Jetix Play</t>
+  </si>
+  <si>
+    <t>E!Entertainment [E!]</t>
+  </si>
+  <si>
+    <t>Canal+ Family 2 [Canal+ Gol]</t>
+  </si>
+  <si>
+    <t>Discovery Travel &amp; Living [Discovery Travel &amp; Adventure]</t>
+  </si>
+  <si>
+    <t>Disney Junior [Playhouse Disney]</t>
+  </si>
+  <si>
+    <t>Water Planet [CSB TV]</t>
+  </si>
+  <si>
+    <t>Polsat Crime &amp; Investigation Network</t>
+  </si>
+  <si>
+    <t>Canal+ Family [Canal+ Weekend]</t>
+  </si>
+  <si>
+    <t>Canal+ Film</t>
+  </si>
+  <si>
+    <t>nSport</t>
+  </si>
+  <si>
+    <t>Polsat Viasat Explorer [Viasat Explorer]</t>
+  </si>
+  <si>
+    <t>Polsat Viasat History [Viasat History]</t>
+  </si>
+  <si>
+    <t>Polsat Viasat Nature [Viasat Nature]</t>
+  </si>
+  <si>
+    <t>Nickelodeon HD</t>
+  </si>
+  <si>
+    <t>Nick Jr</t>
+  </si>
+  <si>
+    <t>Polsat Food</t>
+  </si>
+  <si>
+    <t>Polsat Biznes [TV Biznes]</t>
+  </si>
+  <si>
+    <t>Stars.tv</t>
+  </si>
+  <si>
+    <t>TVP Rozrywka</t>
+  </si>
+  <si>
+    <t>MGM</t>
+  </si>
+  <si>
+    <t>Canal+ Film 2</t>
+  </si>
+  <si>
+    <t>LOVE [Wedding TV]</t>
+  </si>
+  <si>
+    <t>Polsat Romans</t>
+  </si>
+  <si>
+    <t>TVP Regionalna</t>
+  </si>
+  <si>
+    <t>Discovery Turbo Xtra</t>
+  </si>
+  <si>
+    <t>AXN White [AXN Crime]</t>
+  </si>
+  <si>
+    <t>AXN Black [AXN Sci-Fi]</t>
+  </si>
+  <si>
+    <t>13 Ulica [13th Street Universal]</t>
+  </si>
+  <si>
+    <t>TVP ABC</t>
+  </si>
+  <si>
+    <t>TVN24 Biznes i Swiat</t>
+  </si>
+  <si>
+    <t>Stopklatka</t>
+  </si>
+  <si>
+    <t>Romance TV</t>
+  </si>
+  <si>
+    <t>Fokus TV</t>
+  </si>
+  <si>
+    <t>Disco Polo Music</t>
+  </si>
+  <si>
+    <t>Polsat News+ [Polsat Biznes]</t>
+  </si>
+  <si>
+    <t>Power TV</t>
+  </si>
+  <si>
+    <t>TV Republika</t>
+  </si>
+  <si>
+    <t>Vox Music TV</t>
+  </si>
+  <si>
+    <t>CI Polsat [Polsat Crime &amp; Investigation Network]</t>
+  </si>
+  <si>
+    <t>Polsat News 2 [Polsat Biznes]</t>
+  </si>
+  <si>
+    <t>Muzo.tv</t>
+  </si>
+  <si>
+    <t>Polsat Volleyball 1</t>
+  </si>
+  <si>
+    <t>Animal Planet HD</t>
+  </si>
+  <si>
+    <t>mjuzik.tv [Rebel.tv]</t>
+  </si>
+  <si>
+    <t>nSport+ [nSport]</t>
+  </si>
+  <si>
+    <t>Eurosport2</t>
+  </si>
+  <si>
+    <t>ADVENTURE</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>Lifetime</t>
+  </si>
+  <si>
+    <t>Discovery Life [Animal Planet]</t>
+  </si>
+  <si>
+    <t>FOX Comedy [FOX Life]</t>
+  </si>
+  <si>
+    <t>BBC Brit [BBC Entertainment]</t>
+  </si>
+  <si>
+    <t>BBC Earth [BBC Knowledge]</t>
+  </si>
+  <si>
+    <t>Paramount Channel HD [Viacom Blink]</t>
+  </si>
+  <si>
+    <t>BBC HD</t>
+  </si>
+  <si>
+    <t>Sundance Channel</t>
+  </si>
+  <si>
+    <t>TVN Fabula</t>
+  </si>
+  <si>
+    <t>Canal+ Discovery</t>
+  </si>
+  <si>
+    <t>Canal+ Sport2</t>
+  </si>
+  <si>
+    <t>TVN Meteo Active [TVN Meteo]</t>
+  </si>
+  <si>
+    <t>Canal+ 1 [Canal+ Family 2]</t>
+  </si>
+  <si>
+    <t>Polsat Viasat Explore [Polsat Viasat Explorer]</t>
+  </si>
+  <si>
+    <t>Canal+ Seriale [Canal+ Film 2]</t>
+  </si>
+  <si>
+    <t>Motowizja</t>
+  </si>
+  <si>
+    <t>4FUN.TV [4fun.tv]</t>
+  </si>
+  <si>
+    <t>4FUN HITS [mjuzik.tv]</t>
+  </si>
+  <si>
+    <t>4FUN FIT&amp;DANCE [TV.DISCO]</t>
+  </si>
+  <si>
+    <t>Nat Geo People</t>
+  </si>
+  <si>
+    <t>TNT [TCM]</t>
+  </si>
+  <si>
+    <t>Wellbeing</t>
+  </si>
+  <si>
+    <t>Eurosport 1 [Eurosport]</t>
+  </si>
+  <si>
+    <t>NTL</t>
+  </si>
+  <si>
+    <t>NUTA.TV</t>
+  </si>
+  <si>
+    <t>Eleven</t>
+  </si>
+  <si>
+    <t>Eleven Sports</t>
+  </si>
+  <si>
+    <t>HIP HOP TV</t>
+  </si>
+  <si>
+    <t>8TV</t>
+  </si>
+  <si>
+    <t>Zoom TV</t>
+  </si>
+  <si>
+    <t>Nowa TV</t>
+  </si>
+  <si>
+    <t>Metro</t>
+  </si>
+  <si>
+    <t>WP</t>
+  </si>
+  <si>
+    <t>Polsat Sport News HD</t>
+  </si>
+  <si>
+    <t>Polsat Sport Fight</t>
+  </si>
+  <si>
+    <t>Polsat Doku</t>
+  </si>
+  <si>
+    <t>TOP KIDS</t>
+  </si>
+  <si>
+    <t>Golf Channel Polska</t>
+  </si>
+  <si>
+    <t>3Sat</t>
+  </si>
+  <si>
+    <t>foreign</t>
+  </si>
+  <si>
+    <t>4FUN DANCE [4FUN FIT&amp;DANCE]</t>
+  </si>
+  <si>
+    <t>4FUN GOLD HITS [4FUN HITS]</t>
+  </si>
+  <si>
+    <t>Eska TV [8TV]</t>
+  </si>
+  <si>
+    <t>AMC [MGM]</t>
+  </si>
+  <si>
+    <t>ARD1</t>
+  </si>
+  <si>
+    <t>Arte/Cinquieme</t>
+  </si>
+  <si>
+    <t>Avante</t>
+  </si>
+  <si>
+    <t>BBC Prime</t>
+  </si>
+  <si>
+    <t>BBC World News [BBC World]</t>
+  </si>
+  <si>
+    <t>Bloomberg</t>
+  </si>
+  <si>
+    <t>Canal+ Film [Canal+ Zolty]</t>
+  </si>
+  <si>
+    <t>Cinemax</t>
+  </si>
+  <si>
+    <t>Cinemax2</t>
+  </si>
+  <si>
+    <t>CNBC</t>
+  </si>
+  <si>
+    <t>CNN</t>
+  </si>
+  <si>
+    <t>CTV1</t>
+  </si>
+  <si>
+    <t>CTV2</t>
+  </si>
+  <si>
+    <t>Da Vinci Learning</t>
+  </si>
+  <si>
+    <t>Deutsche Welle</t>
+  </si>
+  <si>
+    <t>DSF</t>
+  </si>
+  <si>
+    <t>DTX [Discovery Turbo Xtra]</t>
+  </si>
+  <si>
+    <t>Eska TV Extra [Eska TV]</t>
+  </si>
+  <si>
+    <t>ESPN Classic</t>
+  </si>
+  <si>
+    <t>Euronews</t>
+  </si>
+  <si>
+    <t>Eurosportnews</t>
+  </si>
+  <si>
+    <t>Fashion</t>
+  </si>
+  <si>
+    <t>Fightklub</t>
+  </si>
+  <si>
+    <t>Food Network [Polsat Food]</t>
+  </si>
+  <si>
+    <t>HBO</t>
+  </si>
+  <si>
+    <t>HBO2</t>
+  </si>
+  <si>
+    <t>HBO3 [HBO Comedy]</t>
+  </si>
+  <si>
+    <t>HGTV [TVN Meteo Active]</t>
+  </si>
+  <si>
+    <t>Eska Rock TV [HIP HOP TV]</t>
+  </si>
+  <si>
+    <t>Jetix Play [Fox Kids Play]</t>
+  </si>
+  <si>
+    <t>Kabel1</t>
+  </si>
+  <si>
+    <t>Kino TV [FilmBox]</t>
+  </si>
+  <si>
+    <t>MCM</t>
+  </si>
+  <si>
+    <t>MDR</t>
+  </si>
+  <si>
+    <t>MTV</t>
+  </si>
+  <si>
+    <t>NaszaTV</t>
+  </si>
+  <si>
+    <t>NBC</t>
+  </si>
+  <si>
+    <t>N-TV (German)</t>
+  </si>
+  <si>
+    <t>Onyx</t>
+  </si>
+  <si>
+    <t>Pierwyj kanal [ORT1]</t>
+  </si>
+  <si>
+    <t>Pilot TV</t>
+  </si>
+  <si>
+    <t>Podroze TV</t>
+  </si>
+  <si>
+    <t>Polsat Music HD [Muzo.tv]</t>
+  </si>
+  <si>
+    <t>Polsat Zdrowie i Uroda</t>
+  </si>
+  <si>
+    <t>Pro7</t>
+  </si>
+  <si>
+    <t>Rai due</t>
+  </si>
+  <si>
+    <t>Rai tre</t>
+  </si>
+  <si>
+    <t>Rai uno</t>
+  </si>
+  <si>
+    <t>RTL</t>
+  </si>
+  <si>
+    <t>RTL2</t>
+  </si>
+  <si>
+    <t>RTP</t>
+  </si>
+  <si>
+    <t>Sat1</t>
+  </si>
+  <si>
+    <t>Sky News</t>
+  </si>
+  <si>
+    <t>STV1</t>
+  </si>
+  <si>
+    <t>STV2</t>
+  </si>
+  <si>
+    <t>Super Polsat [Polsat Sport News]</t>
+  </si>
+  <si>
+    <t>Super RTL</t>
+  </si>
+  <si>
+    <t>Super1</t>
+  </si>
+  <si>
+    <t>TO!TV [ITV]</t>
+  </si>
+  <si>
+    <t>Troche Mlodsza Telewizja</t>
+  </si>
+  <si>
+    <t>TV Nova</t>
+  </si>
+  <si>
+    <t>TV Trwam</t>
+  </si>
+  <si>
+    <t>TV5</t>
+  </si>
+  <si>
+    <t>TVE</t>
+  </si>
+  <si>
+    <t>TVN CNBC</t>
+  </si>
+  <si>
+    <t>TVN Gra</t>
+  </si>
+  <si>
+    <t>TVP3 [TVP Regionalna]</t>
+  </si>
+  <si>
+    <t>UPC</t>
+  </si>
+  <si>
+    <t>VH1 (oryginal)</t>
+  </si>
+  <si>
+    <t>VIVA Plus</t>
+  </si>
+  <si>
+    <t>VOX</t>
+  </si>
+  <si>
+    <t>ZDF</t>
+  </si>
+  <si>
+    <t>Novela TV</t>
+  </si>
+  <si>
+    <t>Eleven Sports 1 [Eleven]</t>
+  </si>
+  <si>
+    <t>Eleven Sports 2 [Eleven Sports]</t>
+  </si>
+  <si>
+    <t>MTV Music Polska [VIVA Polska]</t>
+  </si>
+  <si>
+    <t>Epic Drama</t>
+  </si>
+  <si>
+    <t>Da Vinci [Da Vinci Learning]</t>
+  </si>
+  <si>
+    <t>Nicktoons [Nickelodeon HD]</t>
+  </si>
+  <si>
+    <t>Telewizja WPOLSCE.PL</t>
+  </si>
+  <si>
+    <t>Active Family</t>
+  </si>
+  <si>
+    <t>e-sport tv</t>
+  </si>
+  <si>
+    <t>13 Ulica</t>
+  </si>
+  <si>
+    <t>4FUN DANCE</t>
+  </si>
+  <si>
+    <t>4FUN GOLD HITS</t>
+  </si>
+  <si>
+    <t>Ale Kino+</t>
+  </si>
+  <si>
+    <t>AMC</t>
+  </si>
+  <si>
+    <t>ARTE</t>
+  </si>
+  <si>
+    <t>AtomicTV</t>
+  </si>
+  <si>
+    <t>ATV</t>
+  </si>
+  <si>
+    <t>ATV2</t>
+  </si>
+  <si>
+    <t>AXN Black</t>
+  </si>
+  <si>
+    <t>AXN White</t>
+  </si>
+  <si>
+    <t>BBC Brit</t>
+  </si>
+  <si>
+    <t>BBC Earth</t>
+  </si>
+  <si>
+    <t>BBC World News</t>
+  </si>
+  <si>
+    <t>Bet Intl</t>
+  </si>
+  <si>
+    <t>BR3 niemiecki</t>
+  </si>
+  <si>
+    <t>Canal+ 1</t>
+  </si>
+  <si>
+    <t>Canal+ Family</t>
+  </si>
+  <si>
+    <t>Canal+ Seriale</t>
+  </si>
+  <si>
+    <t>Canal+ Sport</t>
+  </si>
+  <si>
+    <t>Canal+pl</t>
+  </si>
+  <si>
+    <t>Cartoon Network pl</t>
+  </si>
+  <si>
+    <t>CBS Action</t>
+  </si>
+  <si>
+    <t>CBS Drama</t>
+  </si>
+  <si>
+    <t>CBS Europa</t>
+  </si>
+  <si>
+    <t>CBS Reality</t>
+  </si>
+  <si>
+    <t>Channel5</t>
+  </si>
+  <si>
+    <t>Childrens Channel pl</t>
+  </si>
+  <si>
+    <t>CI Polsat</t>
+  </si>
+  <si>
+    <t>Cinemax 2</t>
+  </si>
+  <si>
+    <t>CMT</t>
+  </si>
+  <si>
+    <t>Comedy Central Family</t>
+  </si>
+  <si>
+    <t>Da Vinci</t>
+  </si>
+  <si>
+    <t>Discovery Life</t>
+  </si>
+  <si>
+    <t>Discovery pl</t>
+  </si>
+  <si>
+    <t>Discovery Science</t>
+  </si>
+  <si>
+    <t>Discovery Travel &amp; Living pl</t>
+  </si>
+  <si>
+    <t>Discovery World pl</t>
+  </si>
+  <si>
+    <t>Disney Junior</t>
+  </si>
+  <si>
+    <t>Dla Ciebie</t>
+  </si>
+  <si>
+    <t>Domo+</t>
+  </si>
+  <si>
+    <t>DTX</t>
+  </si>
+  <si>
+    <t>E!Entertainment</t>
+  </si>
+  <si>
+    <t>EBN</t>
+  </si>
+  <si>
+    <t>Eleven Sports 1</t>
+  </si>
+  <si>
+    <t>Eleven Sports 2</t>
+  </si>
+  <si>
+    <t>Eska Extra [Eska TV]</t>
+  </si>
+  <si>
+    <t>Eska Rock TV</t>
+  </si>
+  <si>
+    <t>Eurosport 2 PL</t>
+  </si>
+  <si>
+    <t>Eurosport News</t>
+  </si>
+  <si>
+    <t>Eurosport PL</t>
+  </si>
+  <si>
+    <t>Fantastic</t>
+  </si>
+  <si>
+    <t>Food Network</t>
+  </si>
+  <si>
+    <t>Formula 1</t>
+  </si>
+  <si>
+    <t>Fox Comedy</t>
+  </si>
+  <si>
+    <t>France2</t>
+  </si>
+  <si>
+    <t>GalaVision</t>
+  </si>
+  <si>
+    <t>HBO 2</t>
+  </si>
+  <si>
+    <t>HBO 3</t>
+  </si>
+  <si>
+    <t>HGTV</t>
+  </si>
+  <si>
+    <t>Info dokument</t>
+  </si>
+  <si>
+    <t>Jetix pl</t>
+  </si>
+  <si>
+    <t>Kanal 5</t>
+  </si>
+  <si>
+    <t>Kindernet pl</t>
+  </si>
+  <si>
+    <t>Kino TV</t>
+  </si>
+  <si>
+    <t>Knowledge</t>
+  </si>
+  <si>
+    <t>Komedia</t>
+  </si>
+  <si>
+    <t>kuchnia+</t>
+  </si>
+  <si>
+    <t>LOVE</t>
+  </si>
+  <si>
+    <t>M6</t>
+  </si>
+  <si>
+    <t>MBC</t>
+  </si>
+  <si>
+    <t>MDR1</t>
+  </si>
+  <si>
+    <t>Mediaset5</t>
+  </si>
+  <si>
+    <t>MiniMini+</t>
+  </si>
+  <si>
+    <t>MTV Music Polska</t>
+  </si>
+  <si>
+    <t>MTV pl</t>
+  </si>
+  <si>
+    <t>N TV</t>
+  </si>
+  <si>
+    <t>N3</t>
+  </si>
+  <si>
+    <t>Nickelodeon pl</t>
+  </si>
+  <si>
+    <t>Nicktoons</t>
+  </si>
+  <si>
+    <t>Orange Sport</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Other cab/sat</t>
+  </si>
+  <si>
+    <t>Other PL</t>
+  </si>
+  <si>
+    <t>Other reg</t>
+  </si>
+  <si>
+    <t>Paramount Channel HD</t>
+  </si>
+  <si>
+    <t>Patio TV</t>
+  </si>
+  <si>
+    <t>Petersburg5</t>
+  </si>
+  <si>
+    <t>Pierwyj kanal</t>
+  </si>
+  <si>
+    <t>PL Sat 151 unknown</t>
+  </si>
+  <si>
+    <t>Planete+</t>
+  </si>
+  <si>
+    <t>Polonia 1</t>
+  </si>
+  <si>
+    <t>Polsat 2 inf</t>
+  </si>
+  <si>
+    <t>Polsat Games</t>
+  </si>
+  <si>
+    <t>Polsat JimJam</t>
+  </si>
+  <si>
+    <t>Polsat Music HD</t>
+  </si>
+  <si>
+    <t>Polsat News 2</t>
+  </si>
+  <si>
+    <t>Polsat Rodzina</t>
+  </si>
+  <si>
+    <t>Polsat Viasat Explore</t>
+  </si>
+  <si>
+    <t>Polsat Viasat History</t>
+  </si>
+  <si>
+    <t>Polsat Viasat Nature</t>
+  </si>
+  <si>
+    <t>Porion</t>
+  </si>
+  <si>
+    <t>PTK1</t>
+  </si>
+  <si>
+    <t>PTK2</t>
+  </si>
+  <si>
+    <t>Quest</t>
+  </si>
+  <si>
+    <t>Rai 1</t>
+  </si>
+  <si>
+    <t>Rai 2</t>
+  </si>
+  <si>
+    <t>Rai 3</t>
+  </si>
+  <si>
+    <t>Relax</t>
+  </si>
+  <si>
+    <t>RTL7</t>
+  </si>
+  <si>
+    <t>Sat 1</t>
+  </si>
+  <si>
+    <t>Shopping</t>
+  </si>
+  <si>
+    <t>SkyMovie</t>
+  </si>
+  <si>
+    <t>SkyNews</t>
+  </si>
+  <si>
+    <t>Smyk</t>
+  </si>
+  <si>
+    <t>Super Polsat</t>
+  </si>
+  <si>
+    <t>SWF</t>
+  </si>
+  <si>
+    <t>teleTOON+</t>
+  </si>
+  <si>
+    <t>TF1</t>
+  </si>
+  <si>
+    <t>TM3</t>
+  </si>
+  <si>
+    <t>TNT</t>
+  </si>
+  <si>
+    <t>TO!TV</t>
+  </si>
+  <si>
+    <t>TotalTV</t>
+  </si>
+  <si>
+    <t>Trace TV</t>
+  </si>
+  <si>
+    <t>TTM</t>
+  </si>
+  <si>
+    <t>TV Centrum</t>
+  </si>
+  <si>
+    <t>TV Dubai</t>
+  </si>
+  <si>
+    <t>TV PULS</t>
+  </si>
+  <si>
+    <t>TV4 pl</t>
+  </si>
+  <si>
+    <t>TV5 Monde</t>
+  </si>
+  <si>
+    <t>TVN7</t>
+  </si>
+  <si>
+    <t>TVP Info</t>
+  </si>
+  <si>
+    <t>TVP3</t>
+  </si>
+  <si>
+    <t>TVP3 Bialystok</t>
+  </si>
+  <si>
+    <t>TVP3 Bydgoszcz</t>
+  </si>
+  <si>
+    <t>TVP3 Gdansk</t>
+  </si>
+  <si>
+    <t>TVP3 Gorzow Wielkopolski</t>
+  </si>
+  <si>
+    <t>TVP3 Katowice</t>
+  </si>
+  <si>
+    <t>TVP3 Kielce</t>
+  </si>
+  <si>
+    <t>TVP3 Krakow</t>
+  </si>
+  <si>
+    <t>TVP3 Lodz</t>
+  </si>
+  <si>
+    <t>TVP3 Lublin</t>
+  </si>
+  <si>
+    <t>TVP3 Olsztyn</t>
+  </si>
+  <si>
+    <t>TVP3 Opole</t>
+  </si>
+  <si>
+    <t>TVP3 Poznan</t>
+  </si>
+  <si>
+    <t>TVP3 Rzeszow</t>
+  </si>
+  <si>
+    <t>TVP3 Szczecin</t>
+  </si>
+  <si>
+    <t>TVP3 Warszawa</t>
+  </si>
+  <si>
+    <t>TVP3 Wroclaw</t>
+  </si>
+  <si>
+    <t>Twoja Wizja</t>
+  </si>
+  <si>
+    <t>Tylko muzyka</t>
+  </si>
+  <si>
+    <t>VH 1</t>
+  </si>
+  <si>
+    <t>VTV</t>
+  </si>
+  <si>
+    <t>Water Planet</t>
+  </si>
+  <si>
+    <t>WDR</t>
+  </si>
+  <si>
+    <t>Wizja Pogoda</t>
+  </si>
+  <si>
+    <t>Wizja TV tot</t>
+  </si>
+  <si>
+    <t>History2 [H2]</t>
+  </si>
+  <si>
+    <t>National Geographic Wild</t>
+  </si>
+  <si>
+    <t>Red Carpet TV [E TV]</t>
+  </si>
+  <si>
+    <t>BBC First</t>
   </si>
 </sst>
 </file>
@@ -151,7 +1634,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -161,6 +1644,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -478,8 +1964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F00C42F-E352-49A6-9347-FB819072FB32}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,4 +2145,8120 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4528EBFB-DB63-41B8-8FCC-2CE5B44EE30D}">
+  <dimension ref="A1:C736"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A714" workbookViewId="0">
+      <selection activeCell="F720" sqref="F720"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2017</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2017</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2017</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2017</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2017</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2017</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2017</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2017</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2017</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2017</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2017</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2017</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2017</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2017</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2017</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2017</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2017</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2017</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2017</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2017</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2017</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2017</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2017</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2017</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2017</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2017</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2017</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2017</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2017</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2017</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2017</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2017</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2017</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2017</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2017</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2017</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2017</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2017</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2017</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2017</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2017</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2017</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2017</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2017</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2017</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2017</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2017</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2017</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2017</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2017</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2017</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>2017</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2017</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2017</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>2017</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>2017</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2017</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2017</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>2017</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>2017</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>2017</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2017</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>2017</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>2017</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>2017</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>2017</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>2017</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>2017</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>2017</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>2017</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>2017</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>2017</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>2017</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>2017</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>2017</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>2017</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>2017</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>2017</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>2017</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>2017</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>2017</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>2017</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>2017</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>2017</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>2017</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>2017</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>2017</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>2017</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>2017</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>2017</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>2017</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>2017</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>2017</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>2017</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>2017</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>2017</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>2017</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>2017</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>2017</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>2017</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>2017</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>2017</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>2017</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>2017</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>2017</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>2017</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>2017</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>2017</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>2017</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>2017</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>2017</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>2017</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>2017</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>2017</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>2017</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>2017</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>2017</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>2017</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>2017</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>2017</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>2017</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>2017</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>2017</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>2017</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>2017</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>2017</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>2017</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>2017</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>2017</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>2017</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>2017</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>2017</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>2017</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>2017</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>2017</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>2017</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>2017</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>2017</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C139" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>2017</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>2017</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>2017</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>2017</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C143" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>2017</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>2017</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C145" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>2017</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>2017</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>2017</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>2017</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>2017</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>2017</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>2017</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>2017</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>2017</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>2017</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>2017</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>2017</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>2017</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>2017</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>2017</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>2017</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>2017</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>2017</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>2017</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>2017</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>2017</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>2017</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>2017</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>2017</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>2017</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>2017</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>2017</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>2017</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>2017</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>2017</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>2017</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>2017</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>2017</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>2017</v>
+      </c>
+      <c r="B179" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>2017</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>2017</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>2017</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>2017</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>2017</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>2017</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C185" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>2017</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>2017</v>
+      </c>
+      <c r="B187" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>2017</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>2017</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C189" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>2017</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>2017</v>
+      </c>
+      <c r="B191" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C191" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>2017</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>2017</v>
+      </c>
+      <c r="B193" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>2017</v>
+      </c>
+      <c r="B194" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>2017</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>2017</v>
+      </c>
+      <c r="B196" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>2017</v>
+      </c>
+      <c r="B197" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C197" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>2017</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>2017</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>2017</v>
+      </c>
+      <c r="B200" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>2017</v>
+      </c>
+      <c r="B201" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C201" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>2017</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>2017</v>
+      </c>
+      <c r="B203" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C203" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>2017</v>
+      </c>
+      <c r="B204" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C204" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>2017</v>
+      </c>
+      <c r="B205" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C205" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>2017</v>
+      </c>
+      <c r="B206" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>2017</v>
+      </c>
+      <c r="B207" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>2017</v>
+      </c>
+      <c r="B208" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>2017</v>
+      </c>
+      <c r="B209" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>2017</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>2017</v>
+      </c>
+      <c r="B211" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>2017</v>
+      </c>
+      <c r="B212" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>2017</v>
+      </c>
+      <c r="B213" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>2017</v>
+      </c>
+      <c r="B214" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>2017</v>
+      </c>
+      <c r="B215" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>2017</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>2017</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>2017</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>2017</v>
+      </c>
+      <c r="B219" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>2017</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>2017</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>2017</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C222" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>2017</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C223" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>2017</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C224" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>2017</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>2017</v>
+      </c>
+      <c r="B226" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C226" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>2017</v>
+      </c>
+      <c r="B227" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C227" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>2017</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C228" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>2017</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>2017</v>
+      </c>
+      <c r="B230" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C230" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>2017</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>2017</v>
+      </c>
+      <c r="B232" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>2017</v>
+      </c>
+      <c r="B233" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C233" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>2017</v>
+      </c>
+      <c r="B234" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C234" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>2017</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>2017</v>
+      </c>
+      <c r="B236" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C236" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>2017</v>
+      </c>
+      <c r="B237" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>2017</v>
+      </c>
+      <c r="B238" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>2017</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>2017</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>2017</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>2017</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C242" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>2017</v>
+      </c>
+      <c r="B243" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C243" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>2017</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>2017</v>
+      </c>
+      <c r="B245" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C245" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>2017</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>2017</v>
+      </c>
+      <c r="B247" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C247" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>2017</v>
+      </c>
+      <c r="B248" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C248" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>2017</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>2017</v>
+      </c>
+      <c r="B250" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>2017</v>
+      </c>
+      <c r="B251" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>2017</v>
+      </c>
+      <c r="B252" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>2017</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>2017</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>2017</v>
+      </c>
+      <c r="B255" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C255" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>2017</v>
+      </c>
+      <c r="B256" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>2017</v>
+      </c>
+      <c r="B257" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C257" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>2017</v>
+      </c>
+      <c r="B258" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C258" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>2017</v>
+      </c>
+      <c r="B259" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C259" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>2017</v>
+      </c>
+      <c r="B260" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C260" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>2017</v>
+      </c>
+      <c r="B261" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C261" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>2017</v>
+      </c>
+      <c r="B262" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C262" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>2017</v>
+      </c>
+      <c r="B263" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C263" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>2017</v>
+      </c>
+      <c r="B264" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C264" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>2017</v>
+      </c>
+      <c r="B265" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C265" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>2017</v>
+      </c>
+      <c r="B266" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C266" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>2017</v>
+      </c>
+      <c r="B267" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C267" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>2017</v>
+      </c>
+      <c r="B268" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C268" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>2017</v>
+      </c>
+      <c r="B269" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C269" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>2017</v>
+      </c>
+      <c r="B270" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C270" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>2017</v>
+      </c>
+      <c r="B271" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C271" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>2017</v>
+      </c>
+      <c r="B272" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C272" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>2017</v>
+      </c>
+      <c r="B273" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C273" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>2017</v>
+      </c>
+      <c r="B274" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C274" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>2017</v>
+      </c>
+      <c r="B275" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C275" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>2017</v>
+      </c>
+      <c r="B276" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C276" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>2017</v>
+      </c>
+      <c r="B277" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C277" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>2017</v>
+      </c>
+      <c r="B278" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C278" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>2017</v>
+      </c>
+      <c r="B279" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C279" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>2017</v>
+      </c>
+      <c r="B280" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C280" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>2017</v>
+      </c>
+      <c r="B281" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C281" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>2017</v>
+      </c>
+      <c r="B282" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C282" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>2017</v>
+      </c>
+      <c r="B283" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C283" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>2017</v>
+      </c>
+      <c r="B284" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C284" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>2017</v>
+      </c>
+      <c r="B285" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C285" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>2017</v>
+      </c>
+      <c r="B286" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C286" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>2017</v>
+      </c>
+      <c r="B287" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C287" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>2017</v>
+      </c>
+      <c r="B288" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C288" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>2017</v>
+      </c>
+      <c r="B289" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C289" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>2017</v>
+      </c>
+      <c r="B290" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C290" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>2017</v>
+      </c>
+      <c r="B291" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C291" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>2017</v>
+      </c>
+      <c r="B292" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C292" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>2017</v>
+      </c>
+      <c r="B293" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C293" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>2017</v>
+      </c>
+      <c r="B294" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C294" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>2017</v>
+      </c>
+      <c r="B295" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C295" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>2017</v>
+      </c>
+      <c r="B296" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C296" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>2017</v>
+      </c>
+      <c r="B297" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C297" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>2017</v>
+      </c>
+      <c r="B298" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C298" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>2017</v>
+      </c>
+      <c r="B299" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C299" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>2017</v>
+      </c>
+      <c r="B300" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C300" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>2017</v>
+      </c>
+      <c r="B301" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C301" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>2017</v>
+      </c>
+      <c r="B302" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C302" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>2017</v>
+      </c>
+      <c r="B303" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C303" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>2017</v>
+      </c>
+      <c r="B304" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="C304" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>2017</v>
+      </c>
+      <c r="B305" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C305" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>2017</v>
+      </c>
+      <c r="B306" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C306" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>2017</v>
+      </c>
+      <c r="B307" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C307" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>2017</v>
+      </c>
+      <c r="B308" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C308" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>2017</v>
+      </c>
+      <c r="B309" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C309" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>2017</v>
+      </c>
+      <c r="B310" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C310" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>2017</v>
+      </c>
+      <c r="B311" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C311" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>2017</v>
+      </c>
+      <c r="B312" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="C312" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>2017</v>
+      </c>
+      <c r="B313" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="C313" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>2017</v>
+      </c>
+      <c r="B314" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C314" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>2017</v>
+      </c>
+      <c r="B315" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C315" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>2017</v>
+      </c>
+      <c r="B316" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C316" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>2017</v>
+      </c>
+      <c r="B317" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C317" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>2017</v>
+      </c>
+      <c r="B318" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C318" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>2017</v>
+      </c>
+      <c r="B319" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C319" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>2017</v>
+      </c>
+      <c r="B320" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="C320" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>2017</v>
+      </c>
+      <c r="B321" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="C321" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>2017</v>
+      </c>
+      <c r="B322" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="C322" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>2017</v>
+      </c>
+      <c r="B323" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C323" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>2017</v>
+      </c>
+      <c r="B324" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C324" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>2017</v>
+      </c>
+      <c r="B325" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C325" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>2017</v>
+      </c>
+      <c r="B326" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C326" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>2017</v>
+      </c>
+      <c r="B327" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="C327" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>2017</v>
+      </c>
+      <c r="B328" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="C328" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>2017</v>
+      </c>
+      <c r="B329" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="C329" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>2017</v>
+      </c>
+      <c r="B330" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C330" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>2017</v>
+      </c>
+      <c r="B331" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C331" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>2017</v>
+      </c>
+      <c r="B332" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C332" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>2017</v>
+      </c>
+      <c r="B333" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="C333" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>2017</v>
+      </c>
+      <c r="B334" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C334" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>2017</v>
+      </c>
+      <c r="B335" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="C335" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>2017</v>
+      </c>
+      <c r="B336" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C336" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>2017</v>
+      </c>
+      <c r="B337" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="C337" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>2017</v>
+      </c>
+      <c r="B338" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C338" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>2017</v>
+      </c>
+      <c r="B339" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="C339" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>2017</v>
+      </c>
+      <c r="B340" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C340" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>2017</v>
+      </c>
+      <c r="B341" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="C341" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>2017</v>
+      </c>
+      <c r="B342" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="C342" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>2017</v>
+      </c>
+      <c r="B343" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="C343" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>2017</v>
+      </c>
+      <c r="B344" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C344" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>2017</v>
+      </c>
+      <c r="B345" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="C345" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>2017</v>
+      </c>
+      <c r="B346" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C346" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>2017</v>
+      </c>
+      <c r="B347" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C347" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>2017</v>
+      </c>
+      <c r="B348" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="C348" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>2017</v>
+      </c>
+      <c r="B349" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C349" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>2017</v>
+      </c>
+      <c r="B350" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="C350" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>2017</v>
+      </c>
+      <c r="B351" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="C351" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>2017</v>
+      </c>
+      <c r="B352" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C352" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>2017</v>
+      </c>
+      <c r="B353" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="C353" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>2017</v>
+      </c>
+      <c r="B354" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="C354" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>2017</v>
+      </c>
+      <c r="B355" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="C355" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>2017</v>
+      </c>
+      <c r="B356" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="C356" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>2017</v>
+      </c>
+      <c r="B357" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="C357" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>2017</v>
+      </c>
+      <c r="B358" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="C358" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>2017</v>
+      </c>
+      <c r="B359" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="C359" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>2017</v>
+      </c>
+      <c r="B360" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C360" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>2017</v>
+      </c>
+      <c r="B361" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="C361" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>2017</v>
+      </c>
+      <c r="B362" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="C362" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>2017</v>
+      </c>
+      <c r="B363" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C363" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>2017</v>
+      </c>
+      <c r="B364" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C364" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>2017</v>
+      </c>
+      <c r="B365" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="C365" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>2017</v>
+      </c>
+      <c r="B366" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="C366" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>2017</v>
+      </c>
+      <c r="B367" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="C367" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>2017</v>
+      </c>
+      <c r="B368" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="C368" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>2017</v>
+      </c>
+      <c r="B369" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="C369" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>2017</v>
+      </c>
+      <c r="B370" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="C370" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>2017</v>
+      </c>
+      <c r="B371" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="C371" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>2017</v>
+      </c>
+      <c r="B372" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C372" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>2017</v>
+      </c>
+      <c r="B373" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="C373" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>2017</v>
+      </c>
+      <c r="B374" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C374" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>2017</v>
+      </c>
+      <c r="B375" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="C375" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>2017</v>
+      </c>
+      <c r="B376" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="C376" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>2017</v>
+      </c>
+      <c r="B377" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="C377" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>2017</v>
+      </c>
+      <c r="B378" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C378" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>2017</v>
+      </c>
+      <c r="B379" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="C379" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>2017</v>
+      </c>
+      <c r="B380" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="C380" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>2017</v>
+      </c>
+      <c r="B381" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C381" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>2017</v>
+      </c>
+      <c r="B382" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="C382" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>2017</v>
+      </c>
+      <c r="B383" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="C383" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>2017</v>
+      </c>
+      <c r="B384" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="C384" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>2017</v>
+      </c>
+      <c r="B385" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="C385" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>2017</v>
+      </c>
+      <c r="B386" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="C386" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>2017</v>
+      </c>
+      <c r="B387" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="C387" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>2017</v>
+      </c>
+      <c r="B388" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C388" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>2017</v>
+      </c>
+      <c r="B389" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C389" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>2017</v>
+      </c>
+      <c r="B390" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C390" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>2017</v>
+      </c>
+      <c r="B391" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C391" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>2017</v>
+      </c>
+      <c r="B392" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="C392" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>2017</v>
+      </c>
+      <c r="B393" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="C393" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>2017</v>
+      </c>
+      <c r="B394" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="C394" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>2017</v>
+      </c>
+      <c r="B395" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="C395" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>2017</v>
+      </c>
+      <c r="B396" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="C396" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>2017</v>
+      </c>
+      <c r="B397" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="C397" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>2017</v>
+      </c>
+      <c r="B398" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="C398" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>2017</v>
+      </c>
+      <c r="B399" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C399" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>2017</v>
+      </c>
+      <c r="B400" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="C400" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>2017</v>
+      </c>
+      <c r="B401" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="C401" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>2017</v>
+      </c>
+      <c r="B402" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="C402" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>2017</v>
+      </c>
+      <c r="B403" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="C403" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>2017</v>
+      </c>
+      <c r="B404" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="C404" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>2017</v>
+      </c>
+      <c r="B405" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="C405" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>2017</v>
+      </c>
+      <c r="B406" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="C406" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>2017</v>
+      </c>
+      <c r="B407" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="C407" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>2017</v>
+      </c>
+      <c r="B408" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="C408" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>2017</v>
+      </c>
+      <c r="B409" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="C409" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>2017</v>
+      </c>
+      <c r="B410" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="C410" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>2017</v>
+      </c>
+      <c r="B411" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="C411" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>2017</v>
+      </c>
+      <c r="B412" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="C412" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>2017</v>
+      </c>
+      <c r="B413" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="C413" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>2017</v>
+      </c>
+      <c r="B414" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="C414" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>2017</v>
+      </c>
+      <c r="B415" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="C415" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>2017</v>
+      </c>
+      <c r="B416" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="C416" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>2017</v>
+      </c>
+      <c r="B417" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="C417" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>2017</v>
+      </c>
+      <c r="B418" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="C418" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>2017</v>
+      </c>
+      <c r="B419" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="C419" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>2017</v>
+      </c>
+      <c r="B420" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="C420" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>2017</v>
+      </c>
+      <c r="B421" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="C421" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>2017</v>
+      </c>
+      <c r="B422" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="C422" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>2017</v>
+      </c>
+      <c r="B423" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="C423" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>2017</v>
+      </c>
+      <c r="B424" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="C424" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>2017</v>
+      </c>
+      <c r="B425" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="C425" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>2017</v>
+      </c>
+      <c r="B426" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="C426" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>2017</v>
+      </c>
+      <c r="B427" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="C427" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>2017</v>
+      </c>
+      <c r="B428" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="C428" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>2017</v>
+      </c>
+      <c r="B429" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="C429" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <v>2017</v>
+      </c>
+      <c r="B430" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="C430" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>2017</v>
+      </c>
+      <c r="B431" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="C431" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>2017</v>
+      </c>
+      <c r="B432" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="C432" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>2017</v>
+      </c>
+      <c r="B433" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="C433" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>2017</v>
+      </c>
+      <c r="B434" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="C434" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>2017</v>
+      </c>
+      <c r="B435" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="C435" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>2017</v>
+      </c>
+      <c r="B436" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="C436" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <v>2017</v>
+      </c>
+      <c r="B437" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="C437" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>2017</v>
+      </c>
+      <c r="B438" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="C438" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>2017</v>
+      </c>
+      <c r="B439" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="C439" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>2017</v>
+      </c>
+      <c r="B440" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="C440" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>2017</v>
+      </c>
+      <c r="B441" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="C441" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>2017</v>
+      </c>
+      <c r="B442" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="C442" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>2017</v>
+      </c>
+      <c r="B443" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="C443" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <v>2017</v>
+      </c>
+      <c r="B444" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="C444" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>2017</v>
+      </c>
+      <c r="B445" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="C445" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>2017</v>
+      </c>
+      <c r="B446" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="C446" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>2017</v>
+      </c>
+      <c r="B447" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="C447" s="4" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>2017</v>
+      </c>
+      <c r="B448" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="C448" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>2017</v>
+      </c>
+      <c r="B449" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="C449" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>2017</v>
+      </c>
+      <c r="B450" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="C450" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <v>2017</v>
+      </c>
+      <c r="B451" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="C451" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>2017</v>
+      </c>
+      <c r="B452" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="C452" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>2017</v>
+      </c>
+      <c r="B453" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="C453" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>2017</v>
+      </c>
+      <c r="B454" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="C454" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <v>2017</v>
+      </c>
+      <c r="B455" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="C455" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <v>2017</v>
+      </c>
+      <c r="B456" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="C456" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <v>2017</v>
+      </c>
+      <c r="B457" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="C457" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <v>2017</v>
+      </c>
+      <c r="B458" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="C458" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <v>2017</v>
+      </c>
+      <c r="B459" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="C459" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <v>2017</v>
+      </c>
+      <c r="B460" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="C460" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <v>2017</v>
+      </c>
+      <c r="B461" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="C461" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <v>2017</v>
+      </c>
+      <c r="B462" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="C462" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <v>2017</v>
+      </c>
+      <c r="B463" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="C463" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <v>2017</v>
+      </c>
+      <c r="B464" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="C464" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <v>2017</v>
+      </c>
+      <c r="B465" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="C465" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <v>2017</v>
+      </c>
+      <c r="B466" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="C466" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A467">
+        <v>2017</v>
+      </c>
+      <c r="B467" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="C467" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <v>2017</v>
+      </c>
+      <c r="B468" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="C468" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A469">
+        <v>2017</v>
+      </c>
+      <c r="B469" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="C469" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A470">
+        <v>2017</v>
+      </c>
+      <c r="B470" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="C470" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A471">
+        <v>2017</v>
+      </c>
+      <c r="B471" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="C471" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A472">
+        <v>2017</v>
+      </c>
+      <c r="B472" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="C472" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A473">
+        <v>2017</v>
+      </c>
+      <c r="B473" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="C473" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A474">
+        <v>2017</v>
+      </c>
+      <c r="B474" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="C474" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A475">
+        <v>2017</v>
+      </c>
+      <c r="B475" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="C475" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A476">
+        <v>2017</v>
+      </c>
+      <c r="B476" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="C476" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A477">
+        <v>2017</v>
+      </c>
+      <c r="B477" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="C477" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A478">
+        <v>2017</v>
+      </c>
+      <c r="B478" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="C478" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A479">
+        <v>2017</v>
+      </c>
+      <c r="B479" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="C479" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A480">
+        <v>2017</v>
+      </c>
+      <c r="B480" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="C480" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A481">
+        <v>2017</v>
+      </c>
+      <c r="B481" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="C481" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A482">
+        <v>2017</v>
+      </c>
+      <c r="B482" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="C482" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A483">
+        <v>2017</v>
+      </c>
+      <c r="B483" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="C483" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A484">
+        <v>2018</v>
+      </c>
+      <c r="B484" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C484" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A485">
+        <v>2018</v>
+      </c>
+      <c r="B485" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="C485" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A486">
+        <v>2018</v>
+      </c>
+      <c r="B486" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C486" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A487">
+        <v>2018</v>
+      </c>
+      <c r="B487" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C487" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A488">
+        <v>2018</v>
+      </c>
+      <c r="B488" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C488" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A489">
+        <v>2018</v>
+      </c>
+      <c r="B489" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C489" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A490">
+        <v>2018</v>
+      </c>
+      <c r="B490" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C490" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A491">
+        <v>2018</v>
+      </c>
+      <c r="B491" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C491" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A492">
+        <v>2018</v>
+      </c>
+      <c r="B492" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C492" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A493">
+        <v>2018</v>
+      </c>
+      <c r="B493" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C493" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A494">
+        <v>2018</v>
+      </c>
+      <c r="B494" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C494" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A495">
+        <v>2018</v>
+      </c>
+      <c r="B495" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C495" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A496">
+        <v>2018</v>
+      </c>
+      <c r="B496" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="C496" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A497">
+        <v>2018</v>
+      </c>
+      <c r="B497" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C497" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A498">
+        <v>2018</v>
+      </c>
+      <c r="B498" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="C498" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A499">
+        <v>2018</v>
+      </c>
+      <c r="B499" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C499" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A500">
+        <v>2018</v>
+      </c>
+      <c r="B500" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C500" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A501">
+        <v>2018</v>
+      </c>
+      <c r="B501" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C501" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A502">
+        <v>2018</v>
+      </c>
+      <c r="B502" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C502" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A503">
+        <v>2018</v>
+      </c>
+      <c r="B503" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C503" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A504">
+        <v>2018</v>
+      </c>
+      <c r="B504" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C504" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A505">
+        <v>2018</v>
+      </c>
+      <c r="B505" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C505" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A506">
+        <v>2018</v>
+      </c>
+      <c r="B506" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C506" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A507">
+        <v>2018</v>
+      </c>
+      <c r="B507" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C507" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A508">
+        <v>2018</v>
+      </c>
+      <c r="B508" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C508" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A509">
+        <v>2018</v>
+      </c>
+      <c r="B509" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C509" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A510">
+        <v>2018</v>
+      </c>
+      <c r="B510" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C510" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A511">
+        <v>2018</v>
+      </c>
+      <c r="B511" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C511" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A512">
+        <v>2018</v>
+      </c>
+      <c r="B512" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="C512" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A513">
+        <v>2018</v>
+      </c>
+      <c r="B513" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C513" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A514">
+        <v>2018</v>
+      </c>
+      <c r="B514" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C514" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A515">
+        <v>2018</v>
+      </c>
+      <c r="B515" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C515" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A516">
+        <v>2018</v>
+      </c>
+      <c r="B516" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C516" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A517">
+        <v>2018</v>
+      </c>
+      <c r="B517" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="C517" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A518">
+        <v>2018</v>
+      </c>
+      <c r="B518" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C518" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A519">
+        <v>2018</v>
+      </c>
+      <c r="B519" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C519" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A520">
+        <v>2018</v>
+      </c>
+      <c r="B520" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C520" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A521">
+        <v>2018</v>
+      </c>
+      <c r="B521" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C521" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A522">
+        <v>2018</v>
+      </c>
+      <c r="B522" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C522" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A523">
+        <v>2018</v>
+      </c>
+      <c r="B523" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C523" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A524">
+        <v>2018</v>
+      </c>
+      <c r="B524" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C524" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A525">
+        <v>2018</v>
+      </c>
+      <c r="B525" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C525" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A526">
+        <v>2018</v>
+      </c>
+      <c r="B526" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C526" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A527">
+        <v>2018</v>
+      </c>
+      <c r="B527" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C527" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A528">
+        <v>2018</v>
+      </c>
+      <c r="B528" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C528" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A529">
+        <v>2018</v>
+      </c>
+      <c r="B529" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C529" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A530">
+        <v>2018</v>
+      </c>
+      <c r="B530" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C530" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A531">
+        <v>2018</v>
+      </c>
+      <c r="B531" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C531" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A532">
+        <v>2018</v>
+      </c>
+      <c r="B532" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C532" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A533">
+        <v>2018</v>
+      </c>
+      <c r="B533" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C533" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A534">
+        <v>2018</v>
+      </c>
+      <c r="B534" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C534" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A535">
+        <v>2018</v>
+      </c>
+      <c r="B535" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C535" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A536">
+        <v>2018</v>
+      </c>
+      <c r="B536" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C536" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A537">
+        <v>2018</v>
+      </c>
+      <c r="B537" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C537" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A538">
+        <v>2018</v>
+      </c>
+      <c r="B538" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C538" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A539">
+        <v>2018</v>
+      </c>
+      <c r="B539" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C539" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A540">
+        <v>2018</v>
+      </c>
+      <c r="B540" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C540" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A541">
+        <v>2018</v>
+      </c>
+      <c r="B541" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C541" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A542">
+        <v>2018</v>
+      </c>
+      <c r="B542" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C542" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A543">
+        <v>2018</v>
+      </c>
+      <c r="B543" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C543" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A544">
+        <v>2018</v>
+      </c>
+      <c r="B544" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C544" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A545">
+        <v>2018</v>
+      </c>
+      <c r="B545" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C545" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A546">
+        <v>2018</v>
+      </c>
+      <c r="B546" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C546" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A547">
+        <v>2018</v>
+      </c>
+      <c r="B547" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C547" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A548">
+        <v>2018</v>
+      </c>
+      <c r="B548" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C548" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A549">
+        <v>2018</v>
+      </c>
+      <c r="B549" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C549" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A550">
+        <v>2018</v>
+      </c>
+      <c r="B550" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C550" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A551">
+        <v>2018</v>
+      </c>
+      <c r="B551" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C551" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A552">
+        <v>2018</v>
+      </c>
+      <c r="B552" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C552" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A553">
+        <v>2018</v>
+      </c>
+      <c r="B553" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C553" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A554">
+        <v>2018</v>
+      </c>
+      <c r="B554" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C554" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A555">
+        <v>2018</v>
+      </c>
+      <c r="B555" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="C555" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A556">
+        <v>2018</v>
+      </c>
+      <c r="B556" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C556" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A557">
+        <v>2018</v>
+      </c>
+      <c r="B557" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C557" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A558">
+        <v>2018</v>
+      </c>
+      <c r="B558" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C558" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A559">
+        <v>2018</v>
+      </c>
+      <c r="B559" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C559" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A560">
+        <v>2018</v>
+      </c>
+      <c r="B560" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C560" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A561">
+        <v>2018</v>
+      </c>
+      <c r="B561" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C561" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A562">
+        <v>2018</v>
+      </c>
+      <c r="B562" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C562" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A563">
+        <v>2018</v>
+      </c>
+      <c r="B563" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="C563" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A564">
+        <v>2018</v>
+      </c>
+      <c r="B564" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="C564" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A565">
+        <v>2018</v>
+      </c>
+      <c r="B565" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C565" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A566">
+        <v>2018</v>
+      </c>
+      <c r="B566" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C566" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A567">
+        <v>2018</v>
+      </c>
+      <c r="B567" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C567" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A568">
+        <v>2018</v>
+      </c>
+      <c r="B568" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C568" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A569">
+        <v>2018</v>
+      </c>
+      <c r="B569" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C569" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A570">
+        <v>2018</v>
+      </c>
+      <c r="B570" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C570" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A571">
+        <v>2018</v>
+      </c>
+      <c r="B571" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="C571" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A572">
+        <v>2018</v>
+      </c>
+      <c r="B572" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="C572" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A573">
+        <v>2018</v>
+      </c>
+      <c r="B573" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="C573" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A574">
+        <v>2018</v>
+      </c>
+      <c r="B574" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C574" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A575">
+        <v>2018</v>
+      </c>
+      <c r="B575" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C575" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A576">
+        <v>2018</v>
+      </c>
+      <c r="B576" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C576" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A577">
+        <v>2018</v>
+      </c>
+      <c r="B577" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C577" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A578">
+        <v>2018</v>
+      </c>
+      <c r="B578" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="C578" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A579">
+        <v>2018</v>
+      </c>
+      <c r="B579" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="C579" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A580">
+        <v>2018</v>
+      </c>
+      <c r="B580" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="C580" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A581">
+        <v>2018</v>
+      </c>
+      <c r="B581" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C581" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A582">
+        <v>2018</v>
+      </c>
+      <c r="B582" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C582" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A583">
+        <v>2018</v>
+      </c>
+      <c r="B583" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C583" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A584">
+        <v>2018</v>
+      </c>
+      <c r="B584" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="C584" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A585">
+        <v>2018</v>
+      </c>
+      <c r="B585" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C585" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A586">
+        <v>2018</v>
+      </c>
+      <c r="B586" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="C586" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A587">
+        <v>2018</v>
+      </c>
+      <c r="B587" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="C587" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A588">
+        <v>2018</v>
+      </c>
+      <c r="B588" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="C588" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A589">
+        <v>2018</v>
+      </c>
+      <c r="B589" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C589" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A590">
+        <v>2018</v>
+      </c>
+      <c r="B590" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="C590" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A591">
+        <v>2018</v>
+      </c>
+      <c r="B591" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="C591" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A592">
+        <v>2018</v>
+      </c>
+      <c r="B592" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="C592" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A593">
+        <v>2018</v>
+      </c>
+      <c r="B593" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="C593" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A594">
+        <v>2018</v>
+      </c>
+      <c r="B594" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="C594" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A595">
+        <v>2018</v>
+      </c>
+      <c r="B595" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C595" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A596">
+        <v>2018</v>
+      </c>
+      <c r="B596" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="C596" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A597">
+        <v>2018</v>
+      </c>
+      <c r="B597" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C597" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A598">
+        <v>2018</v>
+      </c>
+      <c r="B598" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C598" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A599">
+        <v>2018</v>
+      </c>
+      <c r="B599" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="C599" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A600">
+        <v>2018</v>
+      </c>
+      <c r="B600" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C600" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A601">
+        <v>2018</v>
+      </c>
+      <c r="B601" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="C601" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A602">
+        <v>2018</v>
+      </c>
+      <c r="B602" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="C602" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A603">
+        <v>2018</v>
+      </c>
+      <c r="B603" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C603" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A604">
+        <v>2018</v>
+      </c>
+      <c r="B604" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="C604" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A605">
+        <v>2018</v>
+      </c>
+      <c r="B605" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="C605" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A606">
+        <v>2018</v>
+      </c>
+      <c r="B606" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="C606" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A607">
+        <v>2018</v>
+      </c>
+      <c r="B607" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="C607" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A608">
+        <v>2018</v>
+      </c>
+      <c r="B608" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="C608" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A609">
+        <v>2018</v>
+      </c>
+      <c r="B609" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="C609" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A610">
+        <v>2018</v>
+      </c>
+      <c r="B610" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="C610" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A611">
+        <v>2018</v>
+      </c>
+      <c r="B611" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C611" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A612">
+        <v>2018</v>
+      </c>
+      <c r="B612" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="C612" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A613">
+        <v>2018</v>
+      </c>
+      <c r="B613" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="C613" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A614">
+        <v>2018</v>
+      </c>
+      <c r="B614" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C614" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A615">
+        <v>2018</v>
+      </c>
+      <c r="B615" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="C615" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A616">
+        <v>2018</v>
+      </c>
+      <c r="B616" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="C616" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A617">
+        <v>2018</v>
+      </c>
+      <c r="B617" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="C617" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A618">
+        <v>2018</v>
+      </c>
+      <c r="B618" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="C618" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A619">
+        <v>2018</v>
+      </c>
+      <c r="B619" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="C619" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A620">
+        <v>2018</v>
+      </c>
+      <c r="B620" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="C620" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A621">
+        <v>2018</v>
+      </c>
+      <c r="B621" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="C621" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A622">
+        <v>2018</v>
+      </c>
+      <c r="B622" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="C622" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A623">
+        <v>2018</v>
+      </c>
+      <c r="B623" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="C623" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A624">
+        <v>2018</v>
+      </c>
+      <c r="B624" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="C624" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A625">
+        <v>2018</v>
+      </c>
+      <c r="B625" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="C625" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A626">
+        <v>2018</v>
+      </c>
+      <c r="B626" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="C626" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A627">
+        <v>2018</v>
+      </c>
+      <c r="B627" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="C627" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A628">
+        <v>2018</v>
+      </c>
+      <c r="B628" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="C628" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A629">
+        <v>2018</v>
+      </c>
+      <c r="B629" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C629" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A630">
+        <v>2018</v>
+      </c>
+      <c r="B630" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="C630" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A631">
+        <v>2018</v>
+      </c>
+      <c r="B631" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="C631" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A632">
+        <v>2018</v>
+      </c>
+      <c r="B632" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C632" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A633">
+        <v>2018</v>
+      </c>
+      <c r="B633" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="C633" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A634">
+        <v>2018</v>
+      </c>
+      <c r="B634" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="C634" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A635">
+        <v>2018</v>
+      </c>
+      <c r="B635" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="C635" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A636">
+        <v>2018</v>
+      </c>
+      <c r="B636" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="C636" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A637">
+        <v>2018</v>
+      </c>
+      <c r="B637" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="C637" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A638">
+        <v>2018</v>
+      </c>
+      <c r="B638" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="C638" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A639">
+        <v>2018</v>
+      </c>
+      <c r="B639" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C639" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A640">
+        <v>2018</v>
+      </c>
+      <c r="B640" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="C640" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A641">
+        <v>2018</v>
+      </c>
+      <c r="B641" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="C641" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A642">
+        <v>2018</v>
+      </c>
+      <c r="B642" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="C642" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A643">
+        <v>2018</v>
+      </c>
+      <c r="B643" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="C643" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A644">
+        <v>2018</v>
+      </c>
+      <c r="B644" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="C644" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A645">
+        <v>2018</v>
+      </c>
+      <c r="B645" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="C645" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A646">
+        <v>2018</v>
+      </c>
+      <c r="B646" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="C646" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A647">
+        <v>2018</v>
+      </c>
+      <c r="B647" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="C647" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A648">
+        <v>2018</v>
+      </c>
+      <c r="B648" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="C648" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A649">
+        <v>2018</v>
+      </c>
+      <c r="B649" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="C649" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A650">
+        <v>2018</v>
+      </c>
+      <c r="B650" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="C650" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A651">
+        <v>2018</v>
+      </c>
+      <c r="B651" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="C651" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A652">
+        <v>2018</v>
+      </c>
+      <c r="B652" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="C652" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A653">
+        <v>2018</v>
+      </c>
+      <c r="B653" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="C653" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A654">
+        <v>2018</v>
+      </c>
+      <c r="B654" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="C654" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A655">
+        <v>2018</v>
+      </c>
+      <c r="B655" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="C655" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A656">
+        <v>2018</v>
+      </c>
+      <c r="B656" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="C656" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A657">
+        <v>2018</v>
+      </c>
+      <c r="B657" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="C657" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A658">
+        <v>2018</v>
+      </c>
+      <c r="B658" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="C658" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A659">
+        <v>2018</v>
+      </c>
+      <c r="B659" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="C659" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A660">
+        <v>2018</v>
+      </c>
+      <c r="B660" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="C660" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A661">
+        <v>2018</v>
+      </c>
+      <c r="B661" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="C661" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A662">
+        <v>2018</v>
+      </c>
+      <c r="B662" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="C662" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A663">
+        <v>2018</v>
+      </c>
+      <c r="B663" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="C663" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A664">
+        <v>2018</v>
+      </c>
+      <c r="B664" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="C664" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A665">
+        <v>2018</v>
+      </c>
+      <c r="B665" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="C665" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A666">
+        <v>2018</v>
+      </c>
+      <c r="B666" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="C666" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A667">
+        <v>2018</v>
+      </c>
+      <c r="B667" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="C667" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A668">
+        <v>2018</v>
+      </c>
+      <c r="B668" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="C668" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A669">
+        <v>2018</v>
+      </c>
+      <c r="B669" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="C669" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A670">
+        <v>2018</v>
+      </c>
+      <c r="B670" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="C670" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A671">
+        <v>2018</v>
+      </c>
+      <c r="B671" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="C671" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A672">
+        <v>2018</v>
+      </c>
+      <c r="B672" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="C672" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A673">
+        <v>2018</v>
+      </c>
+      <c r="B673" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="C673" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A674">
+        <v>2018</v>
+      </c>
+      <c r="B674" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="C674" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A675">
+        <v>2018</v>
+      </c>
+      <c r="B675" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="C675" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A676">
+        <v>2018</v>
+      </c>
+      <c r="B676" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="C676" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A677">
+        <v>2018</v>
+      </c>
+      <c r="B677" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="C677" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A678">
+        <v>2018</v>
+      </c>
+      <c r="B678" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="C678" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A679">
+        <v>2018</v>
+      </c>
+      <c r="B679" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="C679" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A680">
+        <v>2018</v>
+      </c>
+      <c r="B680" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="C680" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A681">
+        <v>2018</v>
+      </c>
+      <c r="B681" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="C681" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A682">
+        <v>2018</v>
+      </c>
+      <c r="B682" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="C682" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A683">
+        <v>2018</v>
+      </c>
+      <c r="B683" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="C683" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A684">
+        <v>2018</v>
+      </c>
+      <c r="B684" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="C684" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A685">
+        <v>2018</v>
+      </c>
+      <c r="B685" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="C685" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A686">
+        <v>2018</v>
+      </c>
+      <c r="B686" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="C686" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A687">
+        <v>2018</v>
+      </c>
+      <c r="B687" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="C687" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A688">
+        <v>2018</v>
+      </c>
+      <c r="B688" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="C688" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A689">
+        <v>2018</v>
+      </c>
+      <c r="B689" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="C689" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A690">
+        <v>2018</v>
+      </c>
+      <c r="B690" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="C690" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A691">
+        <v>2018</v>
+      </c>
+      <c r="B691" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="C691" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A692">
+        <v>2018</v>
+      </c>
+      <c r="B692" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="C692" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A693">
+        <v>2018</v>
+      </c>
+      <c r="B693" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="C693" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A694">
+        <v>2018</v>
+      </c>
+      <c r="B694" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="C694" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A695">
+        <v>2018</v>
+      </c>
+      <c r="B695" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="C695" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A696">
+        <v>2018</v>
+      </c>
+      <c r="B696" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="C696" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A697">
+        <v>2018</v>
+      </c>
+      <c r="B697" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="C697" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A698">
+        <v>2018</v>
+      </c>
+      <c r="B698" s="4" t="s">
+        <v>477</v>
+      </c>
+      <c r="C698" s="4" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A699">
+        <v>2018</v>
+      </c>
+      <c r="B699" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="C699" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A700">
+        <v>2018</v>
+      </c>
+      <c r="B700" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="C700" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A701">
+        <v>2018</v>
+      </c>
+      <c r="B701" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="C701" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A702">
+        <v>2018</v>
+      </c>
+      <c r="B702" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="C702" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A703">
+        <v>2018</v>
+      </c>
+      <c r="B703" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="C703" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A704">
+        <v>2018</v>
+      </c>
+      <c r="B704" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="C704" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A705">
+        <v>2018</v>
+      </c>
+      <c r="B705" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="C705" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A706">
+        <v>2018</v>
+      </c>
+      <c r="B706" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="C706" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A707">
+        <v>2018</v>
+      </c>
+      <c r="B707" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="C707" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="708" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A708">
+        <v>2018</v>
+      </c>
+      <c r="B708" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="C708" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A709">
+        <v>2018</v>
+      </c>
+      <c r="B709" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="C709" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A710">
+        <v>2018</v>
+      </c>
+      <c r="B710" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="C710" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A711">
+        <v>2018</v>
+      </c>
+      <c r="B711" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="C711" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A712">
+        <v>2018</v>
+      </c>
+      <c r="B712" s="4" t="s">
+        <v>491</v>
+      </c>
+      <c r="C712" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="713" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A713">
+        <v>2018</v>
+      </c>
+      <c r="B713" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="C713" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A714">
+        <v>2018</v>
+      </c>
+      <c r="B714" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="C714" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A715">
+        <v>2018</v>
+      </c>
+      <c r="B715" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="C715" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A716">
+        <v>2018</v>
+      </c>
+      <c r="B716" s="4" t="s">
+        <v>495</v>
+      </c>
+      <c r="C716" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A717">
+        <v>2018</v>
+      </c>
+      <c r="B717" s="4" t="s">
+        <v>496</v>
+      </c>
+      <c r="C717" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="718" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A718">
+        <v>2018</v>
+      </c>
+      <c r="B718" s="4" t="s">
+        <v>497</v>
+      </c>
+      <c r="C718" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A719">
+        <v>2018</v>
+      </c>
+      <c r="B719" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="C719" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="720" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A720">
+        <v>2018</v>
+      </c>
+      <c r="B720" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="C720" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A721">
+        <v>2018</v>
+      </c>
+      <c r="B721" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="C721" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="722" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A722">
+        <v>2018</v>
+      </c>
+      <c r="B722" s="4" t="s">
+        <v>501</v>
+      </c>
+      <c r="C722" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="723" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A723">
+        <v>2018</v>
+      </c>
+      <c r="B723" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="C723" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="724" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A724">
+        <v>2018</v>
+      </c>
+      <c r="B724" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="C724" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="725" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A725">
+        <v>2018</v>
+      </c>
+      <c r="B725" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="C725" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="726" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A726">
+        <v>2018</v>
+      </c>
+      <c r="B726" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="C726" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="727" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A727">
+        <v>2018</v>
+      </c>
+      <c r="B727" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="C727" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="728" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A728">
+        <v>2018</v>
+      </c>
+      <c r="B728" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="C728" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="729" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A729">
+        <v>2018</v>
+      </c>
+      <c r="B729" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="C729" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="730" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A730">
+        <v>2018</v>
+      </c>
+      <c r="B730" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="C730" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="731" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A731">
+        <v>2018</v>
+      </c>
+      <c r="B731" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="C731" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="732" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A732">
+        <v>2018</v>
+      </c>
+      <c r="B732" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="C732" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="733" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A733">
+        <v>2018</v>
+      </c>
+      <c r="B733" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C733" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="734" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A734">
+        <v>2018</v>
+      </c>
+      <c r="B734" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="C734" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="735" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A735">
+        <v>2018</v>
+      </c>
+      <c r="B735" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="C735" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="736" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A736">
+        <v>2018</v>
+      </c>
+      <c r="B736" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="C736" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C483" xr:uid="{271BC1EA-87D8-454F-B1B1-655425F08199}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/001 Project/001 Application/sql/slowniki.xlsx
+++ b/001 Project/001 Application/sql/slowniki.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\001_programy\005_competitive\001 Project\001 Application\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{293F7667-E4CB-4B26-80B3-8260BF850140}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5869C1CF-D50D-4F34-BAD1-F93F62CB86F9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{0A1D0093-9CB5-406E-8959-9EDFC34F9A2F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{0A1D0093-9CB5-406E-8959-9EDFC34F9A2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sub Category uspojnienie" sheetId="1" r:id="rId1"/>
     <sheet name="Stacje" sheetId="2" r:id="rId2"/>
+    <sheet name="brand_uspione" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Stacje!$A$1:$C$917</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2945" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3029" uniqueCount="567">
   <si>
     <t>NIELSEN</t>
   </si>
@@ -1580,6 +1581,156 @@
   </si>
   <si>
     <t>TVN Media</t>
+  </si>
+  <si>
+    <t>Alfa romeo</t>
+  </si>
+  <si>
+    <t>Alfa Romeo</t>
+  </si>
+  <si>
+    <t>Audi</t>
+  </si>
+  <si>
+    <t>Auto cuby m&amp;p</t>
+  </si>
+  <si>
+    <t>Auto cuby</t>
+  </si>
+  <si>
+    <t>Bmw</t>
+  </si>
+  <si>
+    <t>BMW</t>
+  </si>
+  <si>
+    <t>Bmw motorrad</t>
+  </si>
+  <si>
+    <t>Citroen</t>
+  </si>
+  <si>
+    <t>Dacia</t>
+  </si>
+  <si>
+    <t>Ducati motory</t>
+  </si>
+  <si>
+    <t>Ducati</t>
+  </si>
+  <si>
+    <t>Electromobility poland</t>
+  </si>
+  <si>
+    <t>Electromobility Poland</t>
+  </si>
+  <si>
+    <t>Fiat</t>
+  </si>
+  <si>
+    <t>Ford</t>
+  </si>
+  <si>
+    <t>Harley-davidson</t>
+  </si>
+  <si>
+    <t>Harley-Davidson</t>
+  </si>
+  <si>
+    <t>Honda</t>
+  </si>
+  <si>
+    <t>Hyundai</t>
+  </si>
+  <si>
+    <t>Infiniti</t>
+  </si>
+  <si>
+    <t>Jaguar</t>
+  </si>
+  <si>
+    <t>Jeep</t>
+  </si>
+  <si>
+    <t>Jodmet</t>
+  </si>
+  <si>
+    <t>Junak</t>
+  </si>
+  <si>
+    <t>Kia</t>
+  </si>
+  <si>
+    <t>Kia - eurosport</t>
+  </si>
+  <si>
+    <t>Land rover</t>
+  </si>
+  <si>
+    <t>Land Rover</t>
+  </si>
+  <si>
+    <t>Lexus</t>
+  </si>
+  <si>
+    <t>Mazda</t>
+  </si>
+  <si>
+    <t>Melex</t>
+  </si>
+  <si>
+    <t>Mercedes od 2008</t>
+  </si>
+  <si>
+    <t>Mercedes-Benz</t>
+  </si>
+  <si>
+    <t>Mini</t>
+  </si>
+  <si>
+    <t>Mitsubishi</t>
+  </si>
+  <si>
+    <t>Nissan</t>
+  </si>
+  <si>
+    <t>Opel</t>
+  </si>
+  <si>
+    <t>Peugeot</t>
+  </si>
+  <si>
+    <t>Renault</t>
+  </si>
+  <si>
+    <t>Seat</t>
+  </si>
+  <si>
+    <t>Skoda</t>
+  </si>
+  <si>
+    <t>Suzuki</t>
+  </si>
+  <si>
+    <t>Toyota</t>
+  </si>
+  <si>
+    <t>Toyota motor poland</t>
+  </si>
+  <si>
+    <t>Volkswagen</t>
+  </si>
+  <si>
+    <t>Volvo</t>
+  </si>
+  <si>
+    <t>Yamaha motors</t>
+  </si>
+  <si>
+    <t>Yamaha</t>
+  </si>
+  <si>
+    <t>Zala</t>
   </si>
 </sst>
 </file>
@@ -2154,8 +2305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4528EBFB-DB63-41B8-8FCC-2CE5B44EE30D}">
   <dimension ref="A1:C1451"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1417" workbookViewId="0">
-      <selection activeCell="G1422" sqref="G1422"/>
+    <sheetView topLeftCell="A1417" workbookViewId="0">
+      <selection activeCell="F1434" sqref="F1434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18129,4 +18280,359 @@
   <autoFilter ref="A1:C917" xr:uid="{271BC1EA-87D8-454F-B1B1-655425F08199}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C0F94EC-2897-4DEE-A08B-16BA6EFF1BAD}">
+  <dimension ref="A1:B42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>558</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>566</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>566</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/001 Project/001 Application/sql/slowniki.xlsx
+++ b/001 Project/001 Application/sql/slowniki.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\001_programy\005_competitive\001 Project\001 Application\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{5869C1CF-D50D-4F34-BAD1-F93F62CB86F9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{D37AE6FE-4A5C-4289-A8F2-BEA37EEAD9EA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="2" xr2:uid="{0A1D0093-9CB5-406E-8959-9EDFC34F9A2F}"/>
   </bookViews>
@@ -18287,7 +18287,7 @@
   <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
